--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="s_d_analysis" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="5" r:id="rId2"/>
-    <sheet name="Chart2" sheetId="6" r:id="rId3"/>
-    <sheet name="Simple1vs2" sheetId="2" r:id="rId4"/>
-    <sheet name="Simple1vs3" sheetId="3" r:id="rId5"/>
-    <sheet name="Simple1vs4" sheetId="4" r:id="rId6"/>
+    <sheet name="Chart3" sheetId="8" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="6" r:id="rId4"/>
+    <sheet name="Simple1vs2" sheetId="2" r:id="rId5"/>
+    <sheet name="Simple1vs3" sheetId="3" r:id="rId6"/>
+    <sheet name="Simple1vs4" sheetId="4" r:id="rId7"/>
+    <sheet name="Chart4" sheetId="9" r:id="rId8"/>
+    <sheet name="Time Complexity" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="simple_depth_analysis" localSheetId="0">s_d_analysis!$A$1:$B$252</definedName>
-    <definedName name="simple1vssimple2" localSheetId="3">Simple1vs2!$A$1:$B$49</definedName>
-    <definedName name="simple1vssimple3" localSheetId="4">Simple1vs3!$A$1:$B$48</definedName>
-    <definedName name="simple1vssimple4" localSheetId="5">Simple1vs4!$A$1:$B$48</definedName>
+    <definedName name="simple1vssimple2" localSheetId="4">Simple1vs2!$A$1:$B$49</definedName>
+    <definedName name="simple1vssimple3" localSheetId="5">Simple1vs3!$A$1:$B$48</definedName>
+    <definedName name="simple1vssimple4" localSheetId="6">Simple1vs4!$A$1:$B$48</definedName>
+    <definedName name="time_data_per_move" localSheetId="8">'Time Complexity'!$A$1:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -52,6 +56,14 @@
   </connection>
   <connection id="4" name="simple1vssimple4" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Daniel\Desktop\Game_Theory\simple1vssimple4.txt" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="time_data_per_move" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="Z:\GameTheory\Connect4\time_data_per_move.txt" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -106,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,29 +333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,18 +366,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -412,7 +440,9 @@
           <c:y val="0.90643856178455751"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -427,6 +457,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,6 +526,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -564,6 +596,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -633,6 +666,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -702,6 +736,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -771,6 +806,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -840,17 +876,27 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="127430656"/>
-        <c:axId val="127432576"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173638784"/>
+        <c:axId val="173640704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127430656"/>
+        <c:axId val="173638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -860,32 +906,44 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1050"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Depth</a:t>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>AI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Depth Search, D</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127432576"/>
+        <c:crossAx val="173640704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127432576"/>
+        <c:axId val="173640704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -895,20 +953,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Probability of Winning</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127430656"/>
+        <c:crossAx val="173638784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -932,6 +993,7 @@
           <c:h val="0.19453983854742249"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -941,6 +1003,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -949,12 +1013,326 @@
       </a:solidFill>
     </a:ln>
   </c:spPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Figure 7. Computation Time vs AI Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26898433222442897"/>
+          <c:y val="0.90746264054449222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1306270199515549"/>
+          <c:y val="4.5313584798988275E-2"/>
+          <c:w val="0.84183227739206123"/>
+          <c:h val="0.76767043860274065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26881282513207699"/>
+                  <c:y val="0.13061243591883773"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Time Complexity'!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Time Complexity'!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.8660500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9609499999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6545200000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.2713099999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.19243E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.81767E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.5084699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.3263200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.31409799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.68834300000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.6311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>16.044699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="184665984"/>
+        <c:axId val="184668160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="184665984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>AI Search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> Depth, D</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="184668160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="184668160"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Compuational Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> TIme, T (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184665984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -967,7 +1345,630 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Figure 2. Average</a:t>
+              <a:t>Figure 2. Loss Percentage vs. AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> Depth Search </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>of First Player</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26376809889309921"/>
+          <c:y val="0.90643856178455751"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10443692530401572"/>
+          <c:y val="4.1582470730484523E-2"/>
+          <c:w val="0.77627978192292757"/>
+          <c:h val="0.76295144411914417"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$V$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$V$20:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$W$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$W$20:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$X$20:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$Y$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$Y$20:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$Z$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$Z$20:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_d_analysis!$AA$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_d_analysis!$AA$20:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="128136320"/>
+        <c:axId val="128138240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="128136320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>AI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Depth Search, D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128138240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128138240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Probability of Winning</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128136320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.909010995195772"/>
+          <c:y val="0.34207062545129457"/>
+          <c:w val="8.100145593848522E-2"/>
+          <c:h val="0.19453983854742249"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Figure 3. Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0"/>
@@ -985,7 +1986,9 @@
           <c:y val="0.91481130079074013"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -995,11 +1998,12 @@
           <c:x val="0.10608168017884607"/>
           <c:y val="4.854505458358175E-2"/>
           <c:w val="0.77335037464120526"/>
-          <c:h val="0.79101865226561696"/>
+          <c:h val="0.75670256105327927"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1068,6 +2072,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1137,6 +2142,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1206,6 +2212,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1275,6 +2282,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1344,6 +2352,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1413,17 +2422,27 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94161152"/>
-        <c:axId val="94809472"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174645248"/>
+        <c:axId val="174647168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94161152"/>
+        <c:axId val="174645248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1433,32 +2452,36 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Depth</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94809472"/>
+        <c:crossAx val="174647168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94809472"/>
+        <c:axId val="174647168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
           <c:min val="5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1468,20 +2491,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Probability of Winning</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94161152"/>
+        <c:crossAx val="174645248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1505,6 +2531,7 @@
           <c:h val="0.24871857075306844"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -1514,6 +2541,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1525,9 +2554,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1540,7 +2579,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Figure 3. Win Ratio of Simple_1 vs Simple_2 Heuristic</a:t>
+              <a:t>Figure 4. Win Ratio of Simple_1 vs Simple_2 Heuristic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1549,12 +2588,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23078787878787879"/>
-          <c:y val="0.911976911976912"/>
+          <c:x val="0.15150857657819894"/>
+          <c:y val="0.90288594607492245"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1569,6 +2609,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1693,16 +2734,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63187584"/>
-        <c:axId val="63186048"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175030272"/>
+        <c:axId val="175032192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63187584"/>
+        <c:axId val="175030272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1727,18 +2777,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63186048"/>
+        <c:crossAx val="175032192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63186048"/>
+        <c:axId val="175032192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1763,10 +2817,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63187584"/>
+        <c:crossAx val="175030272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,12 +2834,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7073354399778975"/>
+          <c:x val="0.65928744352934543"/>
           <c:y val="0.543413794587152"/>
-          <c:w val="0.12579028320760605"/>
+          <c:w val="0.17383824905313172"/>
           <c:h val="0.10437468043767256"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -1795,6 +2853,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1804,9 +2864,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1819,7 +2889,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Figure 4. Win Ratio of Simple_1 vs Simple_3 Heuristic</a:t>
+              <a:t>Figure 5. Win Ratio of Simple_1 vs Simple_3 Heuristic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1834,6 +2904,7 @@
       </c:layout>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1848,6 +2919,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1972,16 +3044,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94470528"/>
-        <c:axId val="94535680"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196726784"/>
+        <c:axId val="196728704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94470528"/>
+        <c:axId val="196726784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -2006,18 +3087,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94535680"/>
+        <c:crossAx val="196728704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94535680"/>
+        <c:axId val="196728704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2042,10 +3127,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94470528"/>
+        <c:crossAx val="196726784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,12 +3144,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70733543997789761"/>
+          <c:x val="0.64351768849406654"/>
           <c:y val="0.54341379458715178"/>
-          <c:w val="0.1257902832076061"/>
+          <c:w val="0.18960791439531596"/>
           <c:h val="0.1043746804376726"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -2074,6 +3163,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2083,9 +3174,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2098,7 +3199,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Figure 5. Win Ratio of Simple_1 vs Simple_4 Heuristic</a:t>
+              <a:t>Figure 6. Win Ratio of Simple_1 vs Simple_4 Heuristic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2113,6 +3214,7 @@
       </c:layout>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2127,6 +3229,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2313,16 +3416,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="126805120"/>
-        <c:axId val="126807040"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47094016"/>
+        <c:axId val="189002112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126805120"/>
+        <c:axId val="47094016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -2347,18 +3459,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126807040"/>
+        <c:crossAx val="189002112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126807040"/>
+        <c:axId val="189002112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2383,10 +3499,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126805120"/>
+        <c:crossAx val="47094016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,6 +3522,7 @@
           <c:h val="0.15656202065650884"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -2415,6 +3535,1062 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Figure 6. Win Ratio of Simple_1 vs Simple_4 Heuristic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23078787878787879"/>
+          <c:y val="0.91197691197691155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10887242713081922"/>
+          <c:y val="4.0446337650416726E-2"/>
+          <c:w val="0.81761327531426997"/>
+          <c:h val="0.75929508811398638"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simple_1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$F$7:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tie</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$H$7:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sample_4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$G$7:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44280064"/>
+        <c:axId val="44282240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44280064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Depth</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44282240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44282240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Win</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44280064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46034563496164993"/>
+          <c:y val="0.11051345854495463"/>
+          <c:w val="0.20400619133065279"/>
+          <c:h val="0.15656202065650884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Figure 5. Win Ratio of Simple_1 vs Simple_3 Heuristic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23078787878787879"/>
+          <c:y val="0.91197691197691177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1088724271308192"/>
+          <c:y val="4.0446337650416692E-2"/>
+          <c:w val="0.81761327531426997"/>
+          <c:h val="0.75929508811398605"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simple_1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs3!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs3!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Simple_3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs3!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs3!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175366144"/>
+        <c:axId val="175368064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175366144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Depth</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175368064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175368064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Win</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175366144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70733543997789761"/>
+          <c:y val="0.54341379458715178"/>
+          <c:w val="0.1257902832076061"/>
+          <c:h val="0.1043746804376726"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Figure 6. Win Ratio of Simple_1 vs Simple_4 Heuristic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23078787878787879"/>
+          <c:y val="0.91197691197691155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10887242713081922"/>
+          <c:y val="4.0446337650416726E-2"/>
+          <c:w val="0.81761327531426997"/>
+          <c:h val="0.75929508811398638"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simple_1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$F$7:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Simple_4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$G$7:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tie</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simple1vs4!$H$7:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175917312"/>
+        <c:axId val="175923584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175917312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Depth</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175923584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175923584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Win</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175917312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5339089257199493"/>
+          <c:y val="0.11051345854495463"/>
+          <c:w val="0.12579057687719106"/>
+          <c:h val="0.15656202065650884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2428,7 +4604,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2439,7 +4615,29 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2450,7 +4648,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2474,10 +4672,57 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10318</cdr:x>
+      <cdr:y>0.42231</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88139</cdr:x>
+      <cdr:y>0.42364</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="894013" y="2656974"/>
+          <a:ext cx="6742698" cy="8355"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="57150">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2500,20 +4745,181 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00586</cdr:x>
+      <cdr:y>0.00807</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78407</cdr:x>
+      <cdr:y>0.0094</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6742698" cy="8355"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="57150">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00586</cdr:x>
+      <cdr:y>0.00807</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78407</cdr:x>
+      <cdr:y>0.0094</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6742698" cy="8355"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="57150">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10415</cdr:x>
+      <cdr:y>0.42231</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88235</cdr:x>
+      <cdr:y>0.42231</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="902368" y="2656974"/>
+          <a:ext cx="6742698" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2532,10 +4938,106 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2570,7 +5072,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2605,6 +5107,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="simple_depth_analysis" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -2619,6 +5148,10 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="simple1vssimple4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="time_data_per_move" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2696,6 +5229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2730,6 +5264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2905,14 +5440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -2925,7 +5460,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2933,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +5476,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2949,7 +5484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2957,421 +5492,547 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.8800000000000008</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="4" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="2" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>8</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="3">
         <v>10</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>6</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <v>8</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.8</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.04</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="5">
         <v>0.24</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="5">
         <v>0.04</v>
       </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="3">
+      <c r="D9" s="16"/>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>0.92</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="5">
         <v>0.48</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="5">
         <v>0.04</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="5">
         <v>0.24</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="5">
         <v>0.48</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="3">
+      <c r="M9" s="16"/>
+      <c r="N9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
         <v>0.16</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="5">
         <v>0.04</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="5">
         <v>0.08</v>
       </c>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3">
+      <c r="D10" s="16"/>
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <v>0.96</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="5">
         <v>0.6</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="5">
         <v>0.6</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="5">
         <v>0.32</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="5">
         <v>0.24</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="3">
+      <c r="M10" s="16"/>
+      <c r="N10" s="2">
         <v>4</v>
       </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="5">
         <v>0.04</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="5">
         <v>0.08</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="5">
         <v>0.12</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="6">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3">
+      <c r="D11" s="16"/>
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.44</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>0.68</v>
       </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0.24</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="6">
         <v>0.04</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="3">
+      <c r="M11" s="16"/>
+      <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>0.08</v>
       </c>
-      <c r="R11" s="12">
-        <v>1</v>
-      </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>18.079999999999998</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3">
+      <c r="D12" s="16"/>
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.72</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="5">
         <v>0.4</v>
       </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>0.48</v>
       </c>
-      <c r="K12" s="13">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="3">
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="2">
         <v>8</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <v>0.04</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="5">
         <v>0.12</v>
       </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
         <v>0.04</v>
       </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>25</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+      <c r="D13" s="17"/>
+      <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.84</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="7">
         <v>0.68</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="7">
         <v>0.44</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11">
+      <c r="M13" s="17"/>
+      <c r="N13" s="4">
         <v>10</v>
       </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
         <v>0.08</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="7">
         <v>0.2</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="8">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3379,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3387,471 +6048,597 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>0.96</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="M17" s="4" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="M17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="2" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>15.24</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>8</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="3">
         <v>10</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
         <v>2</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <v>4</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="2">
         <v>6</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <v>8</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="5">
         <v>18.079999999999998</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="5">
         <v>15.24</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="5">
         <v>16.88</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="5">
         <v>17.96</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="6">
         <v>19.2</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12">
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
         <f>1-F8-O8</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="5">
         <f t="shared" ref="P20:T25" si="0">1-G8-P8</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="5">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="5">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="5">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="D21" s="9"/>
-      <c r="E21" s="3">
+      <c r="V20" s="1">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W20" s="1">
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="X20" s="1">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="5">
         <v>11.16</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="5">
         <v>29.12</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="5">
         <v>27.88</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="5">
         <v>25.6</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="5">
         <v>16.96</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="6">
         <v>21.8</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="3">
+      <c r="M21" s="16"/>
+      <c r="N21" s="2">
         <v>2</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="5">
         <f t="shared" ref="O21:O25" si="1">1-F9-O9</f>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="5">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="5">
         <f t="shared" si="0"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="5">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="5">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="5">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3">
+      <c r="D22" s="16"/>
+      <c r="E22" s="2">
         <v>4</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="5">
         <v>10.48</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="5">
         <v>28.6</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="5">
         <v>22.04</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="5">
         <v>23.68</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="5">
         <v>29.76</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="6">
         <v>24.2</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3">
+      <c r="M22" s="16"/>
+      <c r="N22" s="2">
         <v>4</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="5">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="5">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="5">
         <f t="shared" si="0"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="5">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="5">
         <f t="shared" si="0"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="V22" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
         <v>0.24</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3">
+      <c r="D23" s="16"/>
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="5">
         <v>8.92</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="5">
         <v>25.24</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="5">
         <v>31.64</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="5">
         <v>42</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="5">
         <v>52.36</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="6">
         <v>27.64</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="3">
+      <c r="M23" s="16"/>
+      <c r="N23" s="2">
         <v>6</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="5">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="5">
         <f t="shared" si="0"/>
         <v>0.23999999999999994</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="5">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="5">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="V23" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.23999999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>0.76</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3">
+      <c r="D24" s="16"/>
+      <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="5">
         <v>7.64</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="5">
         <v>23.2</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="5">
         <v>30.4</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="5">
         <v>36.6</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="5">
         <v>26.72</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="6">
         <v>32.130000000000003</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="3">
+      <c r="M24" s="16"/>
+      <c r="N24" s="2">
         <v>8</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="5">
         <f t="shared" si="0"/>
         <v>0.24000000000000002</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="5">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="5">
         <f t="shared" si="0"/>
         <v>0.48000000000000004</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V24" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11">
+      <c r="D25" s="17"/>
+      <c r="E25" s="4">
         <v>10</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="7">
         <v>9.16</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="7">
         <v>21.48</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="7">
         <v>32.92</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="7">
         <v>30.76</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="7">
         <v>31.16</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="8">
         <v>33.159999999999997</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11">
+      <c r="M25" s="17"/>
+      <c r="N25" s="4">
         <v>10</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="5">
         <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="5">
         <f t="shared" si="0"/>
         <v>0.23999999999999994</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="5">
         <f t="shared" si="0"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="5">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>16.88</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3859,7 +6646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -3869,26 +6656,26 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="5">
         <v>0.8</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="5">
         <v>0.92</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="5">
         <v>0.96</v>
       </c>
-      <c r="I29" s="12">
-        <v>1</v>
-      </c>
-      <c r="J29" s="12">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,26 +6685,26 @@
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <v>0.48</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="5">
         <v>0.6</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="5">
         <v>0.44</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="5">
         <v>0.72</v>
       </c>
-      <c r="K30" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3927,26 +6714,26 @@
       <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="5">
         <v>0.04</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="5">
         <v>0.04</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="5">
         <v>0.6</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="5">
         <v>0.68</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="5">
         <v>0.4</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="7">
         <v>0.84</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3956,26 +6743,26 @@
       <c r="E32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="5">
         <v>0.24</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="5">
         <v>0.24</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="5">
         <v>0.32</v>
       </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-      <c r="J32" s="12">
-        <v>1</v>
-      </c>
-      <c r="K32" s="14">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7">
         <v>0.68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3985,26 +6772,26 @@
       <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="5">
         <v>0.04</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="5">
         <v>0.48</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="5">
         <v>0.24</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="5">
         <v>0.24</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="5">
         <v>0.48</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="7">
         <v>0.44</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4014,26 +6801,26 @@
       <c r="E34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="6">
         <v>0.04</v>
       </c>
-      <c r="J34" s="13">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15">
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -4059,7 +6846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -4069,26 +6856,26 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="5">
         <v>11.16</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="5">
         <v>10.48</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="5">
         <v>8.92</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="5">
         <v>7.64</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="7">
         <v>9.16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -4098,26 +6885,26 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="5">
         <v>18.079999999999998</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="5">
         <v>29.12</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="5">
         <v>28.6</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="5">
         <v>25.24</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="5">
         <v>23.2</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="7">
         <v>21.48</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -4127,26 +6914,26 @@
       <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="5">
         <v>15.24</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="5">
         <v>27.88</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="5">
         <v>22.04</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="5">
         <v>31.64</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="5">
         <v>30.4</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="7">
         <v>32.92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -4156,26 +6943,26 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="5">
         <v>16.88</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="5">
         <v>25.6</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="5">
         <v>23.68</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="5">
         <v>42</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="5">
         <v>36.6</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="7">
         <v>30.76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -4185,49 +6972,49 @@
       <c r="E41" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="5">
         <v>17.96</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="5">
         <v>16.96</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="5">
         <v>29.76</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="5">
         <v>36.6</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="5">
         <v>26.72</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="7">
         <v>31.16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
         <v>10</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="6">
         <v>19.2</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="6">
         <v>21.8</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="6">
         <v>24.2</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="6">
         <v>27.64</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="6">
         <v>32.130000000000003</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="8">
         <v>33.159999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -4235,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +7030,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -4251,7 +7038,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -4259,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -4267,7 +7054,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +7062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -4283,7 +7070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -4291,7 +7078,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -4299,7 +7086,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -4307,7 +7094,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +7102,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -4323,7 +7110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -4331,7 +7118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +7126,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +7134,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -4355,7 +7142,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -4363,7 +7150,7 @@
         <v>27.88</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +7158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -4379,7 +7166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +7174,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -4395,7 +7182,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -4403,7 +7190,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4411,7 +7198,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -4419,7 +7206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -4427,7 +7214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +7222,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +7230,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +7246,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +7254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -4475,7 +7262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -4483,7 +7270,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +7278,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -4499,7 +7286,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4507,7 +7294,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4515,7 +7302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -4523,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -4531,7 +7318,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -4539,7 +7326,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +7342,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -4563,7 +7350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -4571,7 +7358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -4579,7 +7366,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -4587,7 +7374,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -4595,7 +7382,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +7390,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4611,7 +7398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -4619,7 +7406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +7414,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -4635,7 +7422,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -4643,7 +7430,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -4651,7 +7438,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -4659,7 +7446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -4667,7 +7454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +7462,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -4683,7 +7470,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +7478,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +7486,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +7494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -4715,7 +7502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4723,7 +7510,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -4731,7 +7518,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -4739,7 +7526,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -4747,7 +7534,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>4</v>
       </c>
@@ -4755,7 +7542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -4763,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -4771,7 +7558,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -4779,7 +7566,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +7574,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -4795,7 +7582,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -4803,7 +7590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -4811,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -4827,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +7630,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -4851,7 +7638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -4859,7 +7646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -4867,7 +7654,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -4875,7 +7662,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -4883,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -4891,7 +7678,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -4899,7 +7686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>6</v>
       </c>
@@ -4907,7 +7694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +7702,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +7710,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +7718,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
@@ -4939,7 +7726,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>4</v>
       </c>
@@ -4947,7 +7734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>6</v>
       </c>
@@ -4955,7 +7742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -4963,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
@@ -4979,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
@@ -4987,7 +7774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>4</v>
       </c>
@@ -4995,7 +7782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>6</v>
       </c>
@@ -5003,7 +7790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -5011,7 +7798,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -5019,7 +7806,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>2</v>
       </c>
@@ -5027,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +7822,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +7830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>6</v>
       </c>
@@ -5051,7 +7838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +7846,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -5067,7 +7854,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -5075,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +7870,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
@@ -5091,7 +7878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -5099,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -5107,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -5115,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
@@ -5123,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
@@ -5131,7 +7918,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +7926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>8</v>
       </c>
@@ -5147,7 +7934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +7942,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -5163,7 +7950,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -5171,7 +7958,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
@@ -5179,7 +7966,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
@@ -5187,7 +7974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>8</v>
       </c>
@@ -5195,7 +7982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +7990,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -5211,7 +7998,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
@@ -5219,7 +8006,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +8014,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -5235,7 +8022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -5243,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -5267,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
@@ -5275,7 +8062,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +8070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>8</v>
       </c>
@@ -5291,7 +8078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +8086,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +8094,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
@@ -5315,7 +8102,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
@@ -5323,7 +8110,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>4</v>
       </c>
@@ -5331,7 +8118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>8</v>
       </c>
@@ -5339,7 +8126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -5355,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
@@ -5363,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>3</v>
       </c>
@@ -5371,7 +8158,7 @@
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>4</v>
       </c>
@@ -5379,7 +8166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>10</v>
       </c>
@@ -5387,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>0</v>
       </c>
@@ -5395,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -5403,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -5411,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
@@ -5419,7 +8206,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>4</v>
       </c>
@@ -5427,7 +8214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>10</v>
       </c>
@@ -5435,7 +8222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -5443,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -5451,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
@@ -5459,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>3</v>
       </c>
@@ -5467,7 +8254,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
@@ -5475,7 +8262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>10</v>
       </c>
@@ -5483,7 +8270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5491,7 +8278,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -5499,7 +8286,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -5507,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>3</v>
       </c>
@@ -5515,7 +8302,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>4</v>
       </c>
@@ -5523,7 +8310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>10</v>
       </c>
@@ -5531,7 +8318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>0</v>
       </c>
@@ -5539,7 +8326,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1</v>
       </c>
@@ -5547,7 +8334,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +8342,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>3</v>
       </c>
@@ -5563,7 +8350,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +8358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>10</v>
       </c>
@@ -5579,7 +8366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>0</v>
       </c>
@@ -5587,7 +8374,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5595,7 +8382,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -5603,7 +8390,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>3</v>
       </c>
@@ -5611,7 +8398,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +8406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>10</v>
       </c>
@@ -5627,7 +8414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +8422,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1</v>
       </c>
@@ -5643,7 +8430,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
@@ -5651,7 +8438,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -5659,7 +8446,7 @@
         <v>33.159999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>4</v>
       </c>
@@ -5688,21 +8475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G10"/>
+    <sheetView topLeftCell="M16" workbookViewId="0">
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -5710,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +8505,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5726,7 +8513,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5743,7 +8530,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5760,7 +8547,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5777,7 +8564,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>6</v>
       </c>
@@ -5788,7 +8575,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>8</v>
       </c>
@@ -5799,7 +8586,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5816,7 +8603,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +8611,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -5832,7 +8619,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5840,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,7 +8635,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5856,7 +8643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -5864,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +8659,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -5880,7 +8667,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -5888,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5896,7 +8683,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -5904,7 +8691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -5912,7 +8699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +8707,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5928,7 +8715,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -5936,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5944,7 +8731,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5952,7 +8739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -5960,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +8755,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -5976,7 +8763,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -5984,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -5992,7 +8779,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6000,7 +8787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -6008,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6016,7 +8803,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -6024,7 +8811,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -6032,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6040,7 +8827,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -6055,21 +8842,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6085,7 +8872,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6093,7 +8880,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6101,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6109,7 +8896,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6126,7 +8913,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -6137,7 +8924,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>4</v>
       </c>
@@ -6148,7 +8935,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6165,7 +8952,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +8969,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6199,7 +8986,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -6207,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6215,7 +9002,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6223,7 +9010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6231,7 +9018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +9026,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6247,7 +9034,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -6255,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -6263,7 +9050,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -6271,7 +9058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +9066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +9074,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +9082,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -6303,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -6311,7 +9098,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -6319,7 +9106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +9114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +9122,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +9130,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -6351,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -6359,7 +9146,7 @@
         <v>11.78</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -6367,7 +9154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -6375,7 +9162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +9170,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6391,7 +9178,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -6399,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -6407,7 +9194,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -6422,21 +9209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -6444,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6452,7 +9239,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +9247,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6468,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6476,7 +9263,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +9271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -6498,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -6512,7 +9299,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6532,7 +9319,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -6552,7 +9339,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -6572,7 +9359,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -6592,7 +9379,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6600,7 +9387,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6608,7 +9395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6616,7 +9403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -6624,7 +9411,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6632,7 +9419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -6640,7 +9427,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -6648,7 +9435,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -6656,7 +9443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -6664,7 +9451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -6672,7 +9459,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6680,7 +9467,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -6688,7 +9475,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -6696,7 +9483,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -6704,7 +9491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -6712,7 +9499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +9507,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6728,7 +9515,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -6736,7 +9523,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -6744,7 +9531,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -6752,7 +9539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -6760,7 +9547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +9555,7 @@
         <v>0.35294117647058798</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6776,7 +9563,7 @@
         <v>0.47058823529411697</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -6784,7 +9571,7 @@
         <v>0.17647058823529399</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -6792,7 +9579,7 @@
         <v>28.823529411764699</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -6804,4 +9591,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21">
+        <v>2.8660500000000001E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21">
+        <v>6.9609499999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21">
+        <v>9.6545200000000005E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3.2713099999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.19243E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.81767E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.5084699999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4.3263200000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.31409799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.68834300000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.6311999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>16.044699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>